--- a/TC-Find Patient Record.xlsx
+++ b/TC-Find Patient Record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8115AD2-0C1B-4878-918D-3D289D664C5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E8419E-2CD6-4C53-AD36-64D082F263D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A79C91FC-5EDF-4C48-861D-BE8050D14A2C}"/>
   </bookViews>
@@ -86,18 +86,9 @@
     <t>Search Field: "Akai"</t>
   </si>
   <si>
-    <t>Verify that results are displayed correctly when entering a valid ID search term.</t>
-  </si>
-  <si>
-    <t>Verify that no results are displayed when the user enters the search term ID does not exist.</t>
-  </si>
-  <si>
     <t>Verify that the search function shows all listings when the search query is empty</t>
   </si>
   <si>
-    <t>Verify that results are displayed correctly when entering a valid name search term.</t>
-  </si>
-  <si>
     <t>Search Field: "9000"</t>
   </si>
   <si>
@@ -110,13 +101,7 @@
     <t>Verify that results are displayed correctly when entering a name search term with leading and trailing spaces.</t>
   </si>
   <si>
-    <t>Verify that no results are displayed when the user enters a search term for a name that does not exist.</t>
-  </si>
-  <si>
     <t>TC06</t>
-  </si>
-  <si>
-    <t>Verify that results are displayed correctly when entering a name search term that has both lowercase and uppercase letters</t>
   </si>
   <si>
     <t>TC08</t>
@@ -163,40 +148,31 @@
   </si>
   <si>
     <t>Search Field: "100L41"</t>
+  </si>
+  <si>
+    <t>Verify Find Patient Functioin By Name Correct</t>
+  </si>
+  <si>
+    <t>Verify Find Patient Functioin By ID Correct</t>
+  </si>
+  <si>
+    <t>Verify Find Patient Functioin By Name No Match</t>
+  </si>
+  <si>
+    <t>Verify Find Patient Functioin By ID No Match</t>
+  </si>
+  <si>
+    <t>Verify that the  Find Patient Functioin retrieves the correct</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -210,6 +186,17 @@
     <font>
       <sz val="11"/>
       <color rgb="FF202124"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -267,38 +254,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -616,8 +597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B7EDAB6-D852-42EE-8823-836BF32A164C}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -633,409 +614,409 @@
     <col min="9" max="9" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="E4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="D5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" s="4" t="s">
+      <c r="E8" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7" s="4" t="s">
+      <c r="G9" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="I7" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+      <c r="H9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
+      <c r="A10" s="1"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:I1" xr:uid="{7B7EDAB6-D852-42EE-8823-836BF32A164C}"/>
